--- a/Database_Structure.xlsx
+++ b/Database_Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doansontung/Desktop/cinema-booking-system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988DE213-3B62-C94D-BE8F-8ACDA5804352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D39FB7-EE0C-ED45-93F9-B36F2CF5E7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1720" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Content" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="TBL_SEATS" sheetId="9" r:id="rId7"/>
     <sheet name="TBL_BOOKINGS" sheetId="10" r:id="rId8"/>
     <sheet name="TBL_RESERVED_SEAT" sheetId="11" r:id="rId9"/>
+    <sheet name="TBL_ACTORS" sheetId="12" r:id="rId10"/>
+    <sheet name="TBL_CATEGORIES" sheetId="13" r:id="rId11"/>
+    <sheet name="TBL_ACTOR_FILM" sheetId="14" r:id="rId12"/>
+    <sheet name="TBL_FILM_CATEGORY" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="83">
   <si>
     <t>System/Application Name</t>
   </si>
@@ -277,6 +281,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>last_update</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>actor_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
@@ -624,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,38 +743,11 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,19 +779,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,9 +815,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +864,31 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1078,157 +1119,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="47" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="47" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="64" t="s">
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="54" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="56">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="47">
         <v>45241</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="48" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="63" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="52"/>
     </row>
     <row r="4" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1274,74 +1315,74 @@
       <c r="AO4" s="1"/>
     </row>
     <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="45" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="45" t="s">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="38"/>
     </row>
     <row r="6" spans="1:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1367,155 +1408,155 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="46" t="str">
+      <c r="AM6" s="62" t="str">
         <f t="shared" ref="AM6:AM8" si="0">HYPERLINK("#"&amp;C6&amp;"!A1","Link")</f>
         <v>Link</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="38"/>
     </row>
     <row r="7" spans="1:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="56">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="41" t="str">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="64" t="str">
         <f t="shared" si="0"/>
         <v>Link</v>
       </c>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="38"/>
     </row>
     <row r="8" spans="1:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="56">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="41" t="str">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="64" t="str">
         <f t="shared" si="0"/>
         <v>Link</v>
       </c>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="38"/>
     </row>
     <row r="9" spans="1:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="37"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="38"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -2542,20 +2583,9 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="H2:N3"/>
-    <mergeCell ref="O2:U3"/>
-    <mergeCell ref="V2:Z3"/>
-    <mergeCell ref="AA2:AE3"/>
-    <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="N8:AL8"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:M9"/>
     <mergeCell ref="N9:AL9"/>
@@ -2572,12 +2602,4905 @@
     <mergeCell ref="N7:AL7"/>
     <mergeCell ref="AM7:AO7"/>
     <mergeCell ref="C8:M8"/>
-    <mergeCell ref="N8:AL8"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="H2:N3"/>
+    <mergeCell ref="O2:U3"/>
+    <mergeCell ref="V2:Z3"/>
+    <mergeCell ref="AA2:AE3"/>
+    <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF7DE9F-D9DE-8F41-8136-E813A773C488}">
+  <dimension ref="A1:J988"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="26" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="75"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="str">
+        <f>'Table of Content'!A2</f>
+        <v>Cinama Booking System</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="11" t="str">
+        <f>'Table of Content'!H2</f>
+        <v>Database Structure and Design</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12">
+        <f>'Table of Content'!V2</f>
+        <v>45241</v>
+      </c>
+      <c r="F2" s="76" t="str">
+        <f>'Table of Content'!AA2</f>
+        <v>Doan Son Tung</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="88">
+        <v>1</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="92"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="88">
+        <v>2</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="25">
+        <v>45</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="88">
+        <v>3</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="25">
+        <v>45</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="88">
+        <v>4</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="93"/>
+      <c r="E11" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18BF0CD-FF9C-944C-8533-0EF8BA05157B}">
+  <dimension ref="A1:J988"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="26" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="75"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="str">
+        <f>'Table of Content'!A2</f>
+        <v>Cinama Booking System</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="11" t="str">
+        <f>'Table of Content'!H2</f>
+        <v>Database Structure and Design</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12">
+        <f>'Table of Content'!V2</f>
+        <v>45241</v>
+      </c>
+      <c r="F2" s="76" t="str">
+        <f>'Table of Content'!AA2</f>
+        <v>Doan Son Tung</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="25">
+        <v>45</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBD1A9E-CBF8-B24B-9615-0673EEF2950C}">
+  <dimension ref="A1:J988"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="26" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="75"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="str">
+        <f>'Table of Content'!A2</f>
+        <v>Cinama Booking System</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="11" t="str">
+        <f>'Table of Content'!H2</f>
+        <v>Database Structure and Design</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12">
+        <f>'Table of Content'!V2</f>
+        <v>45241</v>
+      </c>
+      <c r="F2" s="76" t="str">
+        <f>'Table of Content'!AA2</f>
+        <v>Doan Son Tung</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0C8B0F-FC26-A54E-9206-82E86002CE8D}">
+  <dimension ref="A1:J988"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="26" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="75"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="str">
+        <f>'Table of Content'!A2</f>
+        <v>Cinama Booking System</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="11" t="str">
+        <f>'Table of Content'!H2</f>
+        <v>Database Structure and Design</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12">
+        <f>'Table of Content'!V2</f>
+        <v>45241</v>
+      </c>
+      <c r="F2" s="76" t="str">
+        <f>'Table of Content'!AA2</f>
+        <v>Doan Son Tung</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2600,30 +7523,30 @@
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
       <c r="V1" s="68" t="s">
         <v>3</v>
       </c>
@@ -2641,86 +7564,86 @@
       <c r="AF1" s="68"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="str">
+      <c r="A2" s="69" t="str">
         <f>'Table of Content'!A2</f>
         <v>Cinama Booking System</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73" t="str">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="72" t="str">
         <f>'Table of Content'!H2</f>
         <v>Database Structure and Design</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="67" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="69">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="73">
         <f>'Table of Content'!V2</f>
         <v>45241</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="67" t="str">
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="69" t="str">
         <f>'Table of Content'!AA2</f>
         <v>Doan Son Tung</v>
       </c>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -2794,47 +7717,47 @@
       <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66" t="s">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66" t="s">
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66" t="s">
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
@@ -2848,15 +7771,15 @@
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="65" t="s">
         <v>41</v>
       </c>
@@ -2866,21 +7789,21 @@
       <c r="S7" s="65"/>
       <c r="T7" s="65"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="70" t="s">
+      <c r="V7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="71" t="s">
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
@@ -2894,15 +7817,15 @@
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="65" t="s">
         <v>42</v>
       </c>
@@ -2912,21 +7835,21 @@
       <c r="S8" s="65"/>
       <c r="T8" s="65"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="70" t="s">
+      <c r="V8" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="71" t="s">
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
@@ -2940,15 +7863,15 @@
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="65" t="s">
         <v>43</v>
       </c>
@@ -2958,21 +7881,21 @@
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="70" t="s">
+      <c r="V9" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="71" t="s">
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
@@ -2986,15 +7909,15 @@
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="65" t="s">
         <v>44</v>
       </c>
@@ -3004,21 +7927,21 @@
       <c r="S10" s="65"/>
       <c r="T10" s="65"/>
       <c r="U10" s="65"/>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="71" t="s">
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
@@ -3032,15 +7955,15 @@
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="65" t="s">
         <v>45</v>
       </c>
@@ -3050,21 +7973,21 @@
       <c r="S11" s="65"/>
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
-      <c r="V11" s="70" t="s">
+      <c r="V11" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="71" t="s">
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
@@ -3078,15 +8001,15 @@
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
       <c r="G12" s="65"/>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="65" t="s">
         <v>46</v>
       </c>
@@ -3096,21 +8019,21 @@
       <c r="S12" s="65"/>
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="71" t="s">
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
@@ -3124,15 +8047,15 @@
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="65" t="s">
         <v>47</v>
       </c>
@@ -3142,21 +8065,21 @@
       <c r="S13" s="65"/>
       <c r="T13" s="65"/>
       <c r="U13" s="65"/>
-      <c r="V13" s="70" t="s">
+      <c r="V13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="71" t="s">
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4140,45 +9063,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="H2:N3"/>
-    <mergeCell ref="O2:U3"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="V2:AB3"/>
-    <mergeCell ref="V6:AB6"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H6:N6"/>
@@ -4190,6 +9074,45 @@
     <mergeCell ref="H12:N12"/>
     <mergeCell ref="H13:N13"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="H2:N3"/>
+    <mergeCell ref="O2:U3"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="V2:AB3"/>
+    <mergeCell ref="V6:AB6"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
@@ -4300,18 +9223,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -5433,7 +10356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323CE5F7-E700-7048-B359-1E3C0E328365}">
   <dimension ref="A1:J989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5516,18 +10439,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -6674,7 +11597,7 @@
   <dimension ref="A1:J988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6756,18 +11679,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -7971,18 +12894,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -9209,18 +14132,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -10447,18 +15370,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -11664,18 +16587,18 @@
       <c r="A4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
